--- a/Work breakdown structure.xlsx
+++ b/Work breakdown structure.xlsx
@@ -1,143 +1,1153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E281754-B342-4DE6-AEFE-F9094BBAD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>The S Team</t>
   </si>
   <si>
-    <t>Project Setup</t>
+    <t>1. Project Setup</t>
   </si>
   <si>
-    <t>Development</t>
+    <t>2. Development</t>
   </si>
   <si>
-    <t>Review</t>
+    <t>3. Review</t>
   </si>
   <si>
-    <t>Delivery</t>
+    <t>4. Delivery</t>
   </si>
   <si>
-    <t>Clone Project</t>
+    <t>1.1 Clone Project</t>
   </si>
   <si>
-    <t>Find code smells</t>
+    <t>1.2 Fork Project</t>
   </si>
   <si>
-    <t>Find design patterns</t>
+    <t>2.1 Find design patterns</t>
   </si>
   <si>
-    <t>Review code smells</t>
+    <t>2.2 Find code smells</t>
   </si>
   <si>
-    <t>Burndown chart</t>
+    <t>3.1 Review code smells</t>
   </si>
   <si>
-    <t>Fork Project</t>
+    <t>3.2 Review design patterns</t>
   </si>
   <si>
-    <t>Review design patterns</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>4.1 Burndown chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conexão reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400FAF60-2FF7-B9FE-2331-30A294659AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="2148840"/>
+          <a:ext cx="15240" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conexão reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24787C25-838A-C7A8-6914-DA882F6E3847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="2766060"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conexão reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A98D0E-F064-4E01-BDD6-903A4A73FE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="3360420"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conexão reta 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459D7F63-165E-4FB0-AF5C-B5DF89F23E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="2164080"/>
+          <a:ext cx="15240" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conexão reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A4A480-1A72-4AD4-960F-D23B45798256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="2781300"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conexão reta 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61035D1E-62AB-462D-BE13-16F8ADFBB629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5699760" y="3375660"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conexão reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC00E56-B7CC-4BA6-B481-02A3EC15DCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="2156460"/>
+          <a:ext cx="15240" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conexão reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439CD158-D071-430E-ACD9-81A756246C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="2773680"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conexão reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC775E00-9412-41DC-A0C5-B352C74EB11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9136380" y="3368040"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conexão reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67837132-1D82-413C-B7C5-24580F2507DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12633960" y="2171700"/>
+          <a:ext cx="15240" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conexão reta 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35B8998-61D8-474D-BE32-9353049E2B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="2781300"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conexão reta 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC6D333-BE31-427B-93AE-D6B5ACA9DB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3078480" y="1188720"/>
+          <a:ext cx="10408920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conexão reta 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17187C8B-C778-4A5A-8169-E01E6A179F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3093720" y="1173480"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conexão reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1C7032-B34B-44A0-9A01-BAAEA0DBC89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6522720" y="1188720"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conexão reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0A9AF3-6CDD-47AB-A1CD-793706DD03B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9989820" y="1188720"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conexão reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8477EE-4664-45EA-8040-F8A72157F085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13479780" y="1173480"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conexão reta 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D7C472-2C12-47EA-AA5F-E978D9F1FEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="685800"/>
+          <a:ext cx="7620" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -327,109 +1337,190 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:AT2072"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3">
-      <c r="H3" s="1" t="s">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
-    <row r="6">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+    <row r="3" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="7">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="4" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
-    <row r="9">
-      <c r="C9" s="3" t="s">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
-    <row r="10">
-      <c r="F10" s="4"/>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
-    <row r="11">
-      <c r="F11" s="4"/>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
-    <row r="14">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="L14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="P14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="5" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="2072" spans="46:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT2072" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="O9:Q11"/>
+    <mergeCell ref="H2:L4"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="K9:M11"/>
     <mergeCell ref="L14:M15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="L9:M11"/>
     <mergeCell ref="L17:M18"/>
-    <mergeCell ref="O9:P11"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="P14:Q15"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Work breakdown structure.xlsx
+++ b/Work breakdown structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E281754-B342-4DE6-AEFE-F9094BBAD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2686AC15-D475-4541-ABA3-3C4AC28D851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>The S Team</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>4.1 Burndown chart</t>
+  </si>
+  <si>
+    <t>4.2 Final Report</t>
   </si>
 </sst>
 </file>
@@ -146,10 +149,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -696,8 +699,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -713,8 +716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12633960" y="2171700"/>
-          <a:ext cx="15240" cy="624840"/>
+          <a:off x="12633960" y="2369820"/>
+          <a:ext cx="0" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -861,15 +864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -884,8 +887,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3093720" y="1173480"/>
-          <a:ext cx="7620" cy="525780"/>
+          <a:off x="3108960" y="1264920"/>
+          <a:ext cx="7620" cy="708660"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1032,15 +1035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1055,8 +1058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13479780" y="1173480"/>
-          <a:ext cx="7620" cy="525780"/>
+          <a:off x="13464540" y="1249680"/>
+          <a:ext cx="7620" cy="708660"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1119,6 +1122,63 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conexão reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9459C440-D35C-40A9-990C-BD0314647C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="2971800"/>
+          <a:ext cx="502920" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent6">
               <a:lumMod val="75000"/>
@@ -1350,13 +1410,13 @@
   <dimension ref="C2:AT2072"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H2" sqref="H2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H2" s="7" t="s">
+    <row r="2" spans="3:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="5"/>
@@ -1378,19 +1438,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" ht="22.8" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="22.8" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1413,7 +1473,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1428,7 +1488,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1443,16 +1503,16 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="6" t="s">
+    <row r="14" spans="3:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="M14" s="5"/>
@@ -1471,24 +1531,28 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="4:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="3"/>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="5"/>
+      <c r="P17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
@@ -1498,6 +1562,8 @@
       <c r="J18" s="3"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="2072" spans="46:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AT2072" t="s">
@@ -1505,7 +1571,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="O9:Q11"/>
     <mergeCell ref="H2:L4"/>
     <mergeCell ref="D14:E15"/>
@@ -1518,6 +1584,7 @@
     <mergeCell ref="H17:I18"/>
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="P17:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
